--- a/MetaboLights-Validations-v2.0.xlsx
+++ b/MetaboLights-Validations-v2.0.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Input!$A$1:$K$31</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">InvestigationFile!$A$1:$N$47</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">SampleFile!$A$1:$N$48</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">SampleFile!$A$1:$N$49</definedName>
     <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">AssayFile!$A$1:$N$50</definedName>
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">AssignmentFile!$A$1:$M$956</definedName>
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">DataFiles!$A$1:$L$914</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="968">
   <si>
     <t>PHASE</t>
   </si>
@@ -1221,6 +1221,21 @@
     <t>Study Person Affiliation ROR ID is not defined for principal investigator.</t>
   </si>
   <si>
+    <t>PHASE_2</t>
+  </si>
+  <si>
+    <t>MULTIPLE VALUES</t>
+  </si>
+  <si>
+    <t>rule_i_200_900_001_01</t>
+  </si>
+  <si>
+    <t>Ontology term is not validated on Ontology Search Service (e.g. OLS).</t>
+  </si>
+  <si>
+    <t>Ensure ontology term is valid.</t>
+  </si>
+  <si>
     <t>AUTO_UPDATER_DESC</t>
   </si>
   <si>
@@ -1432,9 +1447,6 @@
   </si>
   <si>
     <t>Sample file 's_MTBLS3830.txt' is not referenced in i_Investigation.txt file. Expected 's_Sample.txt'</t>
-  </si>
-  <si>
-    <t>PHASE_2</t>
   </si>
   <si>
     <t>MULTIPLE COLUMNS</t>
@@ -1772,6 +1784,15 @@
   </si>
   <si>
     <t>At least two values must be defined in Factor Value column.</t>
+  </si>
+  <si>
+    <t>rule_s_200_900_001_01</t>
+  </si>
+  <si>
+    <t>Ontology terms are not validated on Ontology Search Service (e.g. OLS).</t>
+  </si>
+  <si>
+    <t>Ensure ontology terms are valid.</t>
   </si>
   <si>
     <t>rule_a_200_100_001_01</t>
@@ -2218,6 +2239,12 @@
   </si>
   <si>
     <t>if all values in Column Type are in a control list, technique name defined in control list should be in assay file name.</t>
+  </si>
+  <si>
+    <t>assay.general</t>
+  </si>
+  <si>
+    <t>rule_a_200_900_001_01</t>
   </si>
   <si>
     <t>rule_m_100_100_001_01</t>
@@ -9654,22 +9681,59 @@
       <c r="AE82" s="34"/>
     </row>
     <row r="83">
-      <c r="K83" s="51"/>
-      <c r="L83" s="51"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="27"/>
-      <c r="T83" s="27"/>
-      <c r="U83" s="27"/>
-      <c r="V83" s="27"/>
-      <c r="W83" s="27"/>
-      <c r="X83" s="27"/>
-      <c r="Y83" s="27"/>
-      <c r="Z83" s="27"/>
-      <c r="AA83" s="27"/>
-      <c r="AB83" s="27"/>
-      <c r="AC83" s="27"/>
-      <c r="AD83" s="27"/>
-      <c r="AE83" s="27"/>
+      <c r="A83" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="E83" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="I83" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J83" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K83" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="L83" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="37"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="37"/>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="37"/>
+      <c r="Z83" s="37"/>
+      <c r="AA83" s="37"/>
+      <c r="AB83" s="37"/>
+      <c r="AC83" s="37"/>
+      <c r="AD83" s="37"/>
+      <c r="AE83" s="37"/>
     </row>
     <row r="84">
       <c r="K84" s="51"/>
@@ -25920,7 +25984,7 @@
         <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -25950,7 +26014,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -25992,13 +26056,13 @@
         <v>51</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="I2" s="54" t="s">
         <v>20</v>
@@ -26007,13 +26071,13 @@
         <v>21</v>
       </c>
       <c r="K2" s="54" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L2" s="54" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="M2" s="54" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="N2" s="54"/>
       <c r="O2" s="55" t="s">
@@ -26035,13 +26099,13 @@
         <v>51</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>20</v>
@@ -26050,13 +26114,13 @@
         <v>21</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="16"/>
@@ -26090,13 +26154,13 @@
         <v>51</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>20</v>
@@ -26105,13 +26169,13 @@
         <v>21</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="48"/>
@@ -26145,13 +26209,13 @@
         <v>51</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>20</v>
@@ -26160,16 +26224,16 @@
         <v>21</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="O5" s="48"/>
       <c r="P5" s="48"/>
@@ -26202,13 +26266,13 @@
         <v>51</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>20</v>
@@ -26217,13 +26281,13 @@
         <v>21</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="48"/>
@@ -26257,13 +26321,13 @@
         <v>51</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>20</v>
@@ -26272,10 +26336,10 @@
         <v>37</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -26307,7 +26371,7 @@
         <v>166</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>73</v>
@@ -26316,13 +26380,13 @@
         <v>51</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>20</v>
@@ -26331,10 +26395,10 @@
         <v>21</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -26369,13 +26433,13 @@
         <v>51</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>20</v>
@@ -26384,10 +26448,10 @@
         <v>21</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -26422,13 +26486,13 @@
         <v>51</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>20</v>
@@ -26437,10 +26501,10 @@
         <v>21</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -26475,13 +26539,13 @@
         <v>51</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>20</v>
@@ -26490,10 +26554,10 @@
         <v>21</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -26528,13 +26592,13 @@
         <v>51</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>20</v>
@@ -26543,10 +26607,10 @@
         <v>21</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -26581,13 +26645,13 @@
         <v>51</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>20</v>
@@ -26596,10 +26660,10 @@
         <v>21</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -26634,13 +26698,13 @@
         <v>51</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
@@ -26649,10 +26713,10 @@
         <v>21</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -26687,13 +26751,13 @@
         <v>51</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>20</v>
@@ -26702,10 +26766,10 @@
         <v>21</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -26740,13 +26804,13 @@
         <v>51</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>20</v>
@@ -26755,10 +26819,10 @@
         <v>21</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -26793,13 +26857,13 @@
         <v>51</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>20</v>
@@ -26808,10 +26872,10 @@
         <v>21</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -26846,13 +26910,13 @@
         <v>51</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>20</v>
@@ -26861,13 +26925,13 @@
         <v>21</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="48"/>
@@ -26901,13 +26965,13 @@
         <v>51</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>20</v>
@@ -26916,13 +26980,13 @@
         <v>37</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="48"/>
@@ -26956,13 +27020,13 @@
         <v>51</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>20</v>
@@ -26971,13 +27035,13 @@
         <v>21</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="48"/>
@@ -27000,14 +27064,14 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>154</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>51</v>
@@ -27016,10 +27080,10 @@
         <v>69</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>20</v>
@@ -27028,16 +27092,16 @@
         <v>37</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="O21" s="48"/>
       <c r="P21" s="48"/>
@@ -27059,14 +27123,14 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>154</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>51</v>
@@ -27075,10 +27139,10 @@
         <v>69</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>36</v>
@@ -27087,16 +27151,16 @@
         <v>37</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O22" s="48"/>
       <c r="P22" s="48"/>
@@ -27104,12 +27168,12 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>51</v>
@@ -27118,10 +27182,10 @@
         <v>69</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>20</v>
@@ -27130,16 +27194,16 @@
         <v>60</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="O23" s="48"/>
       <c r="P23" s="48"/>
@@ -27147,12 +27211,12 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>51</v>
@@ -27161,10 +27225,10 @@
         <v>69</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>36</v>
@@ -27173,13 +27237,13 @@
         <v>60</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="48"/>
@@ -27188,12 +27252,12 @@
     </row>
     <row r="25">
       <c r="A25" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>51</v>
@@ -27202,10 +27266,10 @@
         <v>69</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="I25" s="35" t="s">
         <v>20</v>
@@ -27214,10 +27278,10 @@
         <v>37</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
@@ -27241,12 +27305,12 @@
     </row>
     <row r="26">
       <c r="A26" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>51</v>
@@ -27255,10 +27319,10 @@
         <v>69</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="I26" s="35" t="s">
         <v>36</v>
@@ -27267,10 +27331,10 @@
         <v>37</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L26" s="35" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
@@ -27294,12 +27358,12 @@
     </row>
     <row r="27">
       <c r="A27" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>51</v>
@@ -27308,10 +27372,10 @@
         <v>69</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="I27" s="35" t="s">
         <v>36</v>
@@ -27320,10 +27384,10 @@
         <v>37</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="35"/>
@@ -27347,12 +27411,12 @@
     </row>
     <row r="28">
       <c r="A28" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>51</v>
@@ -27361,10 +27425,10 @@
         <v>69</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="I28" s="35" t="s">
         <v>36</v>
@@ -27373,10 +27437,10 @@
         <v>37</v>
       </c>
       <c r="K28" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="L28" s="35" t="s">
         <v>490</v>
-      </c>
-      <c r="L28" s="35" t="s">
-        <v>486</v>
       </c>
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
@@ -27400,12 +27464,12 @@
     </row>
     <row r="29">
       <c r="A29" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>51</v>
@@ -27414,10 +27478,10 @@
         <v>69</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="I29" s="35" t="s">
         <v>20</v>
@@ -27426,10 +27490,10 @@
         <v>37</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
@@ -27453,12 +27517,12 @@
     </row>
     <row r="30">
       <c r="A30" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>51</v>
@@ -27467,10 +27531,10 @@
         <v>69</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="I30" s="35" t="s">
         <v>36</v>
@@ -27479,10 +27543,10 @@
         <v>37</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
@@ -27506,12 +27570,12 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>51</v>
@@ -27520,10 +27584,10 @@
         <v>69</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>36</v>
@@ -27532,13 +27596,13 @@
         <v>37</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="48"/>
@@ -27547,12 +27611,12 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>51</v>
@@ -27561,10 +27625,10 @@
         <v>69</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>36</v>
@@ -27573,13 +27637,13 @@
         <v>37</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="48"/>
@@ -27588,12 +27652,12 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>51</v>
@@ -27602,10 +27666,10 @@
         <v>69</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>36</v>
@@ -27614,13 +27678,13 @@
         <v>37</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="48"/>
@@ -27629,12 +27693,12 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>51</v>
@@ -27643,10 +27707,10 @@
         <v>69</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>36</v>
@@ -27655,13 +27719,13 @@
         <v>37</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="48"/>
@@ -27670,12 +27734,12 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>51</v>
@@ -27684,10 +27748,10 @@
         <v>69</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>20</v>
@@ -27696,16 +27760,16 @@
         <v>37</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="O35" s="48" t="s">
         <v>224</v>
@@ -27715,12 +27779,12 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>51</v>
@@ -27729,10 +27793,10 @@
         <v>69</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>20</v>
@@ -27741,16 +27805,16 @@
         <v>37</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="O36" s="48"/>
       <c r="P36" s="48"/>
@@ -27758,12 +27822,12 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>51</v>
@@ -27772,10 +27836,10 @@
         <v>69</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>20</v>
@@ -27784,16 +27848,16 @@
         <v>37</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="O37" s="48" t="s">
         <v>232</v>
@@ -27803,12 +27867,12 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>51</v>
@@ -27817,10 +27881,10 @@
         <v>69</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>20</v>
@@ -27829,16 +27893,16 @@
         <v>37</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="O38" s="48" t="s">
         <v>239</v>
@@ -27848,12 +27912,12 @@
     </row>
     <row r="39">
       <c r="A39" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>51</v>
@@ -27862,10 +27926,10 @@
         <v>69</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="I39" s="35" t="s">
         <v>20</v>
@@ -27874,10 +27938,10 @@
         <v>37</v>
       </c>
       <c r="K39" s="35" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="L39" s="35" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
@@ -27903,12 +27967,12 @@
     </row>
     <row r="40">
       <c r="A40" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>51</v>
@@ -27917,10 +27981,10 @@
         <v>69</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="I40" s="35" t="s">
         <v>36</v>
@@ -27929,10 +27993,10 @@
         <v>37</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L40" s="35" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="M40" s="35"/>
       <c r="N40" s="35"/>
@@ -27958,12 +28022,12 @@
     </row>
     <row r="41">
       <c r="A41" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E41" s="35" t="s">
         <v>51</v>
@@ -27972,10 +28036,10 @@
         <v>69</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="I41" s="35" t="s">
         <v>20</v>
@@ -27984,10 +28048,10 @@
         <v>37</v>
       </c>
       <c r="K41" s="35" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="M41" s="35"/>
       <c r="N41" s="35"/>
@@ -28013,12 +28077,12 @@
     </row>
     <row r="42">
       <c r="A42" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>51</v>
@@ -28027,10 +28091,10 @@
         <v>69</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="I42" s="35" t="s">
         <v>36</v>
@@ -28039,10 +28103,10 @@
         <v>37</v>
       </c>
       <c r="K42" s="35" t="s">
+        <v>546</v>
+      </c>
+      <c r="L42" s="35" t="s">
         <v>542</v>
-      </c>
-      <c r="L42" s="35" t="s">
-        <v>538</v>
       </c>
       <c r="M42" s="35"/>
       <c r="N42" s="35"/>
@@ -28066,138 +28130,97 @@
       <c r="AD42" s="37"/>
       <c r="AE42" s="37"/>
     </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="56"/>
-      <c r="AC43" s="56"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="56"/>
-    </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H44" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K44" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K44" s="5" t="s">
+      <c r="L44" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="M44" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
+      <c r="N44" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
+      <c r="AA44" s="56"/>
+      <c r="AB44" s="56"/>
+      <c r="AC44" s="56"/>
+      <c r="AD44" s="56"/>
+      <c r="AE44" s="56"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>553</v>
+        <v>464</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F45" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="I45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="L45" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>559</v>
-      </c>
+      <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="48"/>
       <c r="P45" s="48"/>
@@ -28205,21 +28228,21 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>560</v>
@@ -28237,7 +28260,7 @@
         <v>562</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="48"/>
@@ -28245,116 +28268,208 @@
       <c r="Q46" s="48"/>
     </row>
     <row r="47">
-      <c r="A47" s="57" t="s">
-        <v>459</v>
-      </c>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57" t="s">
-        <v>460</v>
-      </c>
-      <c r="E47" s="57" t="s">
+      <c r="A47" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="57" t="s">
-        <v>554</v>
-      </c>
-      <c r="G47" s="57" t="s">
-        <v>563</v>
-      </c>
-      <c r="H47" s="57" t="s">
+      <c r="F47" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="I47" s="57" t="s">
+      <c r="I47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="E48" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="57" t="s">
+        <v>558</v>
+      </c>
+      <c r="G48" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="H48" s="57" t="s">
+        <v>568</v>
+      </c>
+      <c r="I48" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="57" t="s">
+      <c r="J48" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="K47" s="57" t="s">
-        <v>565</v>
-      </c>
-      <c r="L47" s="57" t="s">
-        <v>566</v>
-      </c>
-      <c r="M47" s="57" t="s">
+      <c r="K48" s="57" t="s">
+        <v>569</v>
+      </c>
+      <c r="L48" s="57" t="s">
+        <v>570</v>
+      </c>
+      <c r="M48" s="57" t="s">
+        <v>571</v>
+      </c>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="58"/>
+      <c r="T48" s="58"/>
+      <c r="U48" s="58"/>
+      <c r="V48" s="58"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="58"/>
+      <c r="Y48" s="58"/>
+      <c r="Z48" s="58"/>
+      <c r="AA48" s="58"/>
+      <c r="AB48" s="58"/>
+      <c r="AC48" s="58"/>
+      <c r="AD48" s="58"/>
+      <c r="AE48" s="58"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="N47" s="57"/>
-      <c r="O47" s="57"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="58"/>
-      <c r="S47" s="58"/>
-      <c r="T47" s="58"/>
-      <c r="U47" s="58"/>
-      <c r="V47" s="58"/>
-      <c r="W47" s="58"/>
-      <c r="X47" s="58"/>
-      <c r="Y47" s="58"/>
-      <c r="Z47" s="58"/>
-      <c r="AA47" s="58"/>
-      <c r="AB47" s="58"/>
-      <c r="AC47" s="58"/>
-      <c r="AD47" s="58"/>
-      <c r="AE47" s="58"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="E48" s="12" t="s">
+      <c r="H49" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="15"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E50" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>568</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="12" t="s">
+      <c r="F50" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>575</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J50" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K48" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
-      <c r="AC48" s="15"/>
-      <c r="AD48" s="15"/>
-      <c r="AE48" s="15"/>
-    </row>
-    <row r="52">
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
+      <c r="K50" s="35" t="s">
+        <v>576</v>
+      </c>
+      <c r="L50" s="35" t="s">
+        <v>577</v>
+      </c>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
+      <c r="AA50" s="37"/>
+      <c r="AB50" s="37"/>
+      <c r="AC50" s="37"/>
+      <c r="AD50" s="37"/>
+      <c r="AE50" s="37"/>
     </row>
     <row r="53">
       <c r="K53" s="51"/>
@@ -32112,10 +32227,14 @@
       <c r="K991" s="51"/>
       <c r="L991" s="51"/>
     </row>
+    <row r="992">
+      <c r="K992" s="51"/>
+      <c r="L992" s="51"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$N$48">
-    <sortState ref="A1:N48">
-      <sortCondition ref="H1:H48"/>
+  <autoFilter ref="$A$1:$N$49">
+    <sortState ref="A1:N49">
+      <sortCondition ref="H1:H49"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>
@@ -32156,13 +32275,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="B1" s="59" t="s">
         <v>142</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -32192,7 +32311,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -32234,13 +32353,13 @@
         <v>86</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>20</v>
@@ -32249,10 +32368,10 @@
         <v>21</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -32273,13 +32392,13 @@
         <v>86</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>20</v>
@@ -32288,10 +32407,10 @@
         <v>21</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -32312,13 +32431,13 @@
         <v>86</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>20</v>
@@ -32327,15 +32446,15 @@
         <v>21</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="8" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -32353,13 +32472,13 @@
         <v>86</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>20</v>
@@ -32368,10 +32487,10 @@
         <v>21</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -32392,13 +32511,13 @@
         <v>86</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>20</v>
@@ -32407,10 +32526,10 @@
         <v>21</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -32445,13 +32564,13 @@
         <v>86</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>20</v>
@@ -32460,10 +32579,10 @@
         <v>21</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -32498,13 +32617,13 @@
         <v>86</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>20</v>
@@ -32513,15 +32632,15 @@
         <v>21</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="48" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="P8" s="48"/>
       <c r="Q8" s="48"/>
@@ -32553,13 +32672,13 @@
         <v>86</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>20</v>
@@ -32568,10 +32687,10 @@
         <v>21</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -32606,13 +32725,13 @@
         <v>86</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>36</v>
@@ -32621,10 +32740,10 @@
         <v>37</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -32659,13 +32778,13 @@
         <v>86</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>36</v>
@@ -32674,10 +32793,10 @@
         <v>37</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -32712,13 +32831,13 @@
         <v>86</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>20</v>
@@ -32727,10 +32846,10 @@
         <v>21</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -32765,13 +32884,13 @@
         <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>20</v>
@@ -32780,10 +32899,10 @@
         <v>21</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="M13" s="64"/>
       <c r="N13" s="64"/>
@@ -32818,13 +32937,13 @@
         <v>86</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
@@ -32833,10 +32952,10 @@
         <v>21</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -32871,13 +32990,13 @@
         <v>86</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>20</v>
@@ -32886,10 +33005,10 @@
         <v>21</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -32924,13 +33043,13 @@
         <v>86</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>20</v>
@@ -32939,10 +33058,10 @@
         <v>21</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -32977,13 +33096,13 @@
         <v>86</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>20</v>
@@ -32992,10 +33111,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -33019,12 +33138,12 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>86</v>
@@ -33033,10 +33152,10 @@
         <v>87</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>20</v>
@@ -33045,14 +33164,14 @@
         <v>37</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="O18" s="48"/>
       <c r="P18" s="48"/>
@@ -33074,12 +33193,12 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>86</v>
@@ -33088,10 +33207,10 @@
         <v>87</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>36</v>
@@ -33100,14 +33219,14 @@
         <v>37</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O19" s="48"/>
       <c r="P19" s="48"/>
@@ -33129,12 +33248,12 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>86</v>
@@ -33143,10 +33262,10 @@
         <v>87</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>36</v>
@@ -33155,14 +33274,14 @@
         <v>37</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="O20" s="48"/>
       <c r="P20" s="48"/>
@@ -33184,12 +33303,12 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>86</v>
@@ -33198,10 +33317,10 @@
         <v>87</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>36</v>
@@ -33210,10 +33329,10 @@
         <v>37</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -33237,12 +33356,12 @@
     </row>
     <row r="22">
       <c r="A22" s="57" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
       <c r="D22" s="57" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E22" s="57" t="s">
         <v>86</v>
@@ -33251,10 +33370,10 @@
         <v>87</v>
       </c>
       <c r="G22" s="57" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="I22" s="35" t="s">
         <v>20</v>
@@ -33263,10 +33382,10 @@
         <v>37</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="57"/>
@@ -33290,12 +33409,12 @@
     </row>
     <row r="23">
       <c r="A23" s="57" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B23" s="57"/>
       <c r="C23" s="57"/>
       <c r="D23" s="57" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E23" s="57" t="s">
         <v>86</v>
@@ -33304,10 +33423,10 @@
         <v>87</v>
       </c>
       <c r="G23" s="57" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="I23" s="35" t="s">
         <v>36</v>
@@ -33316,10 +33435,10 @@
         <v>37</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L23" s="35" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M23" s="57"/>
       <c r="N23" s="57"/>
@@ -33343,12 +33462,12 @@
     </row>
     <row r="24">
       <c r="A24" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E24" s="49" t="s">
         <v>86</v>
@@ -33357,10 +33476,10 @@
         <v>87</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>36</v>
@@ -33396,12 +33515,12 @@
     </row>
     <row r="25">
       <c r="A25" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E25" s="49" t="s">
         <v>86</v>
@@ -33410,10 +33529,10 @@
         <v>87</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="I25" s="35" t="s">
         <v>20</v>
@@ -33422,10 +33541,10 @@
         <v>37</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
@@ -33449,12 +33568,12 @@
     </row>
     <row r="26">
       <c r="A26" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E26" s="49" t="s">
         <v>86</v>
@@ -33463,10 +33582,10 @@
         <v>87</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="I26" s="35" t="s">
         <v>36</v>
@@ -33475,10 +33594,10 @@
         <v>37</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="L26" s="35" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
@@ -33502,12 +33621,12 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E27" s="49" t="s">
         <v>86</v>
@@ -33516,10 +33635,10 @@
         <v>87</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="I27" s="35" t="s">
         <v>20</v>
@@ -33528,10 +33647,10 @@
         <v>37</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -33543,12 +33662,12 @@
     </row>
     <row r="28">
       <c r="A28" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>86</v>
@@ -33557,10 +33676,10 @@
         <v>87</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="I28" s="35" t="s">
         <v>36</v>
@@ -33569,10 +33688,10 @@
         <v>37</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
@@ -33598,12 +33717,12 @@
     </row>
     <row r="29">
       <c r="A29" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>86</v>
@@ -33612,10 +33731,10 @@
         <v>87</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="I29" s="35" t="s">
         <v>20</v>
@@ -33624,10 +33743,10 @@
         <v>37</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
@@ -33653,12 +33772,12 @@
     </row>
     <row r="30">
       <c r="A30" s="35" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>86</v>
@@ -33667,10 +33786,10 @@
         <v>87</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="I30" s="35" t="s">
         <v>36</v>
@@ -33679,10 +33798,10 @@
         <v>37</v>
       </c>
       <c r="K30" s="35" t="s">
+        <v>546</v>
+      </c>
+      <c r="L30" s="35" t="s">
         <v>542</v>
-      </c>
-      <c r="L30" s="35" t="s">
-        <v>538</v>
       </c>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
@@ -33708,12 +33827,12 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>86</v>
@@ -33722,10 +33841,10 @@
         <v>87</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>36</v>
@@ -33734,10 +33853,10 @@
         <v>37</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -33761,12 +33880,12 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>86</v>
@@ -33775,10 +33894,10 @@
         <v>87</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>36</v>
@@ -33787,10 +33906,10 @@
         <v>37</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -33814,12 +33933,12 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>86</v>
@@ -33828,10 +33947,10 @@
         <v>87</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>36</v>
@@ -33840,10 +33959,10 @@
         <v>37</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -33867,12 +33986,12 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>86</v>
@@ -33881,10 +34000,10 @@
         <v>87</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>36</v>
@@ -33893,10 +34012,10 @@
         <v>37</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -33920,12 +34039,12 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>86</v>
@@ -33934,10 +34053,10 @@
         <v>87</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>20</v>
@@ -33946,17 +34065,17 @@
         <v>37</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="O35" s="48" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
@@ -33977,12 +34096,12 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>86</v>
@@ -33991,10 +34110,10 @@
         <v>87</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>20</v>
@@ -34003,14 +34122,14 @@
         <v>37</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="O36" s="48"/>
       <c r="P36" s="48"/>
@@ -34032,12 +34151,12 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>86</v>
@@ -34046,10 +34165,10 @@
         <v>87</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>20</v>
@@ -34058,14 +34177,14 @@
         <v>37</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="O37" s="48"/>
       <c r="P37" s="48"/>
@@ -34087,12 +34206,12 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>86</v>
@@ -34101,10 +34220,10 @@
         <v>87</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>20</v>
@@ -34113,14 +34232,14 @@
         <v>21</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
@@ -34142,12 +34261,12 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>86</v>
@@ -34156,10 +34275,10 @@
         <v>87</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>20</v>
@@ -34168,10 +34287,10 @@
         <v>21</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -34195,12 +34314,12 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>86</v>
@@ -34209,10 +34328,10 @@
         <v>87</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>36</v>
@@ -34221,10 +34340,10 @@
         <v>60</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -34248,24 +34367,24 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>20</v>
@@ -34274,7 +34393,7 @@
         <v>21</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>138</v>
@@ -34301,24 +34420,24 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>20</v>
@@ -34327,10 +34446,10 @@
         <v>21</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -34354,7 +34473,7 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -34365,13 +34484,13 @@
         <v>86</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>20</v>
@@ -34380,14 +34499,14 @@
         <v>21</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="O43" s="48"/>
       <c r="P43" s="48"/>
@@ -34409,24 +34528,24 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>36</v>
@@ -34435,14 +34554,14 @@
         <v>37</v>
       </c>
       <c r="K44" s="68" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="O44" s="48"/>
       <c r="P44" s="48"/>
@@ -34464,24 +34583,24 @@
     </row>
     <row r="45">
       <c r="A45" s="57" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B45" s="57"/>
       <c r="C45" s="57"/>
       <c r="D45" s="57" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E45" s="57" t="s">
         <v>86</v>
       </c>
       <c r="F45" s="57" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="G45" s="57" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="H45" s="57" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="I45" s="57" t="s">
         <v>20</v>
@@ -34490,14 +34609,14 @@
         <v>37</v>
       </c>
       <c r="K45" s="57" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="L45" s="57" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="M45" s="57"/>
       <c r="N45" s="57" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="O45" s="57"/>
       <c r="P45" s="57"/>
@@ -34519,24 +34638,24 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>36</v>
@@ -34545,14 +34664,14 @@
         <v>21</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="O46" s="48"/>
       <c r="P46" s="48"/>
@@ -34574,24 +34693,24 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>36</v>
@@ -34600,10 +34719,10 @@
         <v>21</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -34627,24 +34746,24 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>20</v>
@@ -34653,10 +34772,10 @@
         <v>21</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -34680,7 +34799,7 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -34691,13 +34810,13 @@
         <v>86</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>20</v>
@@ -34706,14 +34825,14 @@
         <v>21</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="O49" s="48"/>
       <c r="P49" s="48"/>
@@ -34735,24 +34854,24 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>36</v>
@@ -34761,14 +34880,14 @@
         <v>21</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="O50" s="48"/>
       <c r="P50" s="48"/>
@@ -34790,24 +34909,24 @@
     </row>
     <row r="51">
       <c r="A51" s="57" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B51" s="57"/>
       <c r="C51" s="57"/>
       <c r="D51" s="57" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E51" s="57" t="s">
         <v>86</v>
       </c>
       <c r="F51" s="57" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="G51" s="57" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="H51" s="57" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="I51" s="57" t="s">
         <v>20</v>
@@ -34816,10 +34935,10 @@
         <v>37</v>
       </c>
       <c r="K51" s="57" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="L51" s="57" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="M51" s="57"/>
       <c r="N51" s="57"/>
@@ -34843,24 +34962,24 @@
     </row>
     <row r="52">
       <c r="A52" s="57" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B52" s="57"/>
       <c r="C52" s="57"/>
       <c r="D52" s="57" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E52" s="57" t="s">
         <v>86</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="G52" s="57" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="H52" s="57" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="I52" s="57" t="s">
         <v>36</v>
@@ -34869,10 +34988,10 @@
         <v>21</v>
       </c>
       <c r="K52" s="57" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="L52" s="57" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="M52" s="57"/>
       <c r="N52" s="57"/>
@@ -34895,8 +35014,59 @@
       <c r="AE52" s="67"/>
     </row>
     <row r="53">
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
+      <c r="A53" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>721</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>722</v>
+      </c>
+      <c r="I53" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" s="35" t="s">
+        <v>576</v>
+      </c>
+      <c r="L53" s="35" t="s">
+        <v>577</v>
+      </c>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="37"/>
+      <c r="AA53" s="37"/>
+      <c r="AB53" s="37"/>
+      <c r="AC53" s="37"/>
+      <c r="AD53" s="37"/>
+      <c r="AE53" s="37"/>
     </row>
     <row r="54">
       <c r="K54" s="51"/>
@@ -38654,7 +38824,7 @@
         <v>142</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -38684,7 +38854,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -38732,7 +38902,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>20</v>
@@ -38741,10 +38911,10 @@
         <v>21</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -38771,7 +38941,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>20</v>
@@ -38780,15 +38950,15 @@
         <v>21</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="8" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
@@ -38812,7 +38982,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>20</v>
@@ -38821,10 +38991,10 @@
         <v>21</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -38865,7 +39035,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>20</v>
@@ -38874,10 +39044,10 @@
         <v>21</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -38918,7 +39088,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>36</v>
@@ -38927,17 +39097,17 @@
         <v>21</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="O6" s="48" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="P6" s="48"/>
       <c r="Q6" s="48"/>
@@ -38975,7 +39145,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>36</v>
@@ -38984,14 +39154,14 @@
         <v>21</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="O7" s="48"/>
       <c r="P7" s="48"/>
@@ -39030,7 +39200,7 @@
         <v>18</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>20</v>
@@ -39039,15 +39209,15 @@
         <v>21</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="48" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="P8" s="48"/>
       <c r="Q8" s="48"/>
@@ -39085,7 +39255,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>20</v>
@@ -39138,7 +39308,7 @@
         <v>18</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>20</v>
@@ -39147,10 +39317,10 @@
         <v>21</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -39191,7 +39361,7 @@
         <v>18</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>20</v>
@@ -39200,10 +39370,10 @@
         <v>37</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -39227,12 +39397,12 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>116</v>
@@ -39241,10 +39411,10 @@
         <v>128</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>20</v>
@@ -39253,10 +39423,10 @@
         <v>37</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -39280,12 +39450,12 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>116</v>
@@ -39294,10 +39464,10 @@
         <v>128</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>20</v>
@@ -39306,15 +39476,15 @@
         <v>37</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="48" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="P13" s="48"/>
       <c r="Q13" s="48"/>
@@ -39335,12 +39505,12 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>116</v>
@@ -39349,10 +39519,10 @@
         <v>128</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
@@ -39361,10 +39531,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -39388,12 +39558,12 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>116</v>
@@ -39402,10 +39572,10 @@
         <v>128</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>20</v>
@@ -39414,10 +39584,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -39441,24 +39611,24 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>116</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>20</v>
@@ -39467,17 +39637,17 @@
         <v>37</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="O16" s="48" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="P16" s="48"/>
       <c r="Q16" s="48"/>
@@ -39498,24 +39668,24 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>116</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>20</v>
@@ -39524,14 +39694,14 @@
         <v>37</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="O17" s="48"/>
       <c r="P17" s="48"/>
@@ -39553,24 +39723,24 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>116</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>36</v>
@@ -39579,14 +39749,14 @@
         <v>37</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="O18" s="48"/>
       <c r="P18" s="48"/>
@@ -39608,24 +39778,24 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>116</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>36</v>
@@ -39634,17 +39804,17 @@
         <v>21</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="O19" s="48" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="P19" s="48"/>
       <c r="Q19" s="48"/>
@@ -39665,24 +39835,24 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>116</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>36</v>
@@ -39691,14 +39861,14 @@
         <v>37</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="O20" s="48"/>
       <c r="P20" s="48"/>
@@ -39720,24 +39890,24 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>116</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>36</v>
@@ -39746,14 +39916,14 @@
         <v>21</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="O21" s="48"/>
       <c r="P21" s="48"/>
@@ -43740,22 +43910,22 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -43764,13 +43934,13 @@
         <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="69"/>
@@ -43794,20 +43964,20 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>20</v>
@@ -43816,13 +43986,13 @@
         <v>21</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="69"/>
@@ -43831,20 +44001,20 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>20</v>
@@ -43853,13 +44023,13 @@
         <v>37</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="69"/>
@@ -43868,20 +44038,20 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>20</v>
@@ -43890,13 +44060,13 @@
         <v>21</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="69"/>
@@ -43905,20 +44075,20 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>20</v>
@@ -43927,13 +44097,13 @@
         <v>37</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="L6" s="20"/>
       <c r="M6" s="70"/>
@@ -43957,20 +44127,20 @@
     </row>
     <row r="7">
       <c r="A7" s="71" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="71" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="D7" s="71" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="G7" s="71" t="s">
         <v>20</v>
@@ -43979,16 +44149,16 @@
         <v>37</v>
       </c>
       <c r="I7" s="71" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="J7" s="71" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="K7" s="71" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="L7" s="71" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="M7" s="72"/>
       <c r="N7" s="72"/>
@@ -44011,20 +44181,20 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>20</v>
@@ -44033,13 +44203,13 @@
         <v>37</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="69"/>
@@ -44048,35 +44218,35 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="69"/>
@@ -44085,35 +44255,35 @@
     </row>
     <row r="10" ht="73.5" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="69"/>
@@ -44122,35 +44292,35 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="69"/>
@@ -44159,20 +44329,20 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>36</v>
@@ -44181,13 +44351,13 @@
         <v>37</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="69"/>
@@ -44196,20 +44366,20 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>36</v>
@@ -44218,13 +44388,13 @@
         <v>21</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="69"/>
@@ -44233,20 +44403,20 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>36</v>
@@ -44255,13 +44425,13 @@
         <v>21</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="69"/>
@@ -44270,20 +44440,20 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>20</v>
@@ -44292,13 +44462,13 @@
         <v>21</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="69"/>
@@ -44307,20 +44477,20 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>20</v>
@@ -44329,10 +44499,10 @@
         <v>37</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -44342,20 +44512,20 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>20</v>
@@ -44364,10 +44534,10 @@
         <v>21</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -44377,20 +44547,20 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>20</v>
@@ -44399,16 +44569,16 @@
         <v>37</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="M18" s="69"/>
       <c r="N18" s="69"/>
@@ -48367,15 +48537,15 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>861</v>
+        <v>870</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>863</v>
+        <v>872</v>
       </c>
     </row>
     <row r="3">
@@ -48387,19 +48557,19 @@
         <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>866</v>
+        <v>875</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4">
@@ -48411,19 +48581,19 @@
         <v>51</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5">
@@ -48435,19 +48605,19 @@
         <v>86</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
     </row>
     <row r="6">
@@ -48463,15 +48633,15 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>878</v>
+        <v>887</v>
       </c>
     </row>
     <row r="7">
@@ -48487,231 +48657,231 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
         <v>86</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>86</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>86</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>86</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
         <v>86</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
         <v>86</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="6" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
     </row>
     <row r="17">
@@ -48727,15 +48897,15 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
     </row>
     <row r="18">
@@ -48751,15 +48921,15 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
     </row>
     <row r="19">
@@ -48775,15 +48945,15 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
     </row>
     <row r="20">
@@ -48799,15 +48969,15 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
     </row>
     <row r="21">
@@ -48823,15 +48993,15 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
     </row>
     <row r="22">
@@ -48847,15 +49017,15 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
     </row>
     <row r="23">
@@ -48871,15 +49041,15 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
     </row>
     <row r="24">
@@ -48895,44 +49065,44 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
         <v>116</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
@@ -48943,20 +49113,20 @@
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
@@ -48967,20 +49137,20 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
@@ -48991,15 +49161,15 @@
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
     </row>
     <row r="29">
@@ -49015,20 +49185,20 @@
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>950</v>
+        <v>959</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
@@ -49039,20 +49209,20 @@
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
-        <v>952</v>
+        <v>961</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>953</v>
+        <v>962</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
@@ -49063,20 +49233,20 @@
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>955</v>
+        <v>964</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>956</v>
+        <v>965</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>459</v>
+        <v>388</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
@@ -49087,15 +49257,15 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
     </row>
   </sheetData>
